--- a/Child_info.xlsx
+++ b/Child_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>number</t>
   </si>
@@ -43,36 +43,18 @@
     <t>002</t>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
     <t>Riddles Wisely Expounded [Child 1]</t>
   </si>
   <si>
     <t>Elfin Knight, The [Child 2]</t>
   </si>
   <si>
-    <t>Fause Knight Upon the Road, The [Child 3]</t>
-  </si>
-  <si>
-    <t>Lady Isabel and the Elf Knight [Child 4]</t>
-  </si>
-  <si>
     <t>A knight arrives to court three sisters. The youngest goes to bed with him. He promises to marry her if she can answer his riddles. She does, and he either marries her or is revealed as the Devil.</t>
   </si>
   <si>
     <t>A man (sometimes an "Elfin" knight) and a woman exchange tasks. He offers to marry her if she performs his (impossible) tasks; she shows how she feels by making equally unperformable requests</t>
   </si>
   <si>
-    <t>A grown man (knight, churl, demon) meets a schoolboy on the road. The schoolboy matches wits with the man, finding a defense or matching insult for each thrust, and so survives</t>
-  </si>
-  <si>
-    <t>A knight woos a lady. He will marry her if she runs away with him. He leads her to the seashore and threatens to drown/kill her as he has killed others before. She makes him turn his back and kills him instead. She bribes her parrot to keep her secret</t>
-  </si>
-  <si>
     <t xml:space="preserve"> unknown</t>
   </si>
   <si>
@@ -82,34 +64,16 @@
     <t>1673 (broadside)</t>
   </si>
   <si>
-    <t>1827 (Motherwell, _Minstrelsy: Ancient and Modern_)</t>
-  </si>
-  <si>
-    <t>1776 (Herd)</t>
-  </si>
-  <si>
     <t>courting Devil riddle marriage family questions MiddleEnglish</t>
   </si>
   <si>
     <t>courting magic bargaining dialog paradox tasks</t>
   </si>
   <si>
-    <t>contest Devil virtue questions</t>
-  </si>
-  <si>
-    <t>elopement homicide seduction bird lie</t>
-  </si>
-  <si>
     <t>US(Ap,NE,SE,So) Britain(England(North,West,South),Scotland) Jamaica</t>
   </si>
   <si>
     <t>Britain(England(All),Scotland(Aber,Bord)) US(Ap,MA,MW,NE,SE,So,SW) Canada(Newf,West) Ireland</t>
-  </si>
-  <si>
-    <t>Britain(Scotland) US(Ap,NE,SE,So) Canada(Mar) Ireland</t>
-  </si>
-  <si>
-    <t>Britain(England(All),Scotland) US(All) Canada(Mar,Newf,Ont) Ireland Australia; analogues in Poland, Germany, France, Scandinavia, Netherlands</t>
   </si>
 </sst>
 </file>
@@ -467,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,22 +468,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -530,74 +494,22 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
